--- a/data/trans_orig/P21D3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07669EC2-B850-4B33-B856-539585716AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04E5F0A0-DA10-48D3-926D-C4BEF88B8FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86B3078C-E471-434D-93F2-7C710687D225}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B36C456-7040-49D8-9741-E58B451DE51C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="188">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 43,88%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="187">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>27,52%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>72,48%</t>
   </si>
   <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>78,18%</t>
   </si>
   <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -158,445 +158,442 @@
     <t>29,83%</t>
   </si>
   <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
   </si>
   <si>
     <t>20,47%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
   </si>
   <si>
     <t>78,59%</t>
   </si>
   <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>74,07%</t>
   </si>
   <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
   </si>
   <si>
     <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1011,7 +1008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13734D84-CA0A-4376-99BE-40F0BB024345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA9BCE1-E165-4135-9076-D10B12321C67}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1730,13 +1727,13 @@
         <v>716826</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,13 +1748,13 @@
         <v>2297</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -1766,13 +1763,13 @@
         <v>9746</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -1781,13 +1778,13 @@
         <v>12043</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,13 +1814,13 @@
         <v>795</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1832,13 +1829,13 @@
         <v>795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,7 +1891,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1909,10 +1906,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -1921,13 +1918,13 @@
         <v>53256</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -1936,13 +1933,13 @@
         <v>105552</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,13 +1954,13 @@
         <v>281886</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>425</v>
@@ -1972,13 +1969,13 @@
         <v>299170</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>696</v>
@@ -1987,13 +1984,13 @@
         <v>581055</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,13 +2005,13 @@
         <v>1945</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2023,13 +2020,13 @@
         <v>2595</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -2038,13 +2035,13 @@
         <v>4540</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,7 +2062,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2080,7 +2077,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2095,7 +2092,7 @@
         <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,7 +2148,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2163,13 +2160,13 @@
         <v>144660</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H24" s="7">
         <v>143</v>
@@ -2178,13 +2175,13 @@
         <v>129955</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>267</v>
@@ -2193,13 +2190,13 @@
         <v>274615</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,13 +2211,13 @@
         <v>278348</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>518</v>
@@ -2229,13 +2226,13 @@
         <v>379326</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>819</v>
@@ -2244,13 +2241,13 @@
         <v>657674</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2262,13 @@
         <v>814</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2280,13 +2277,13 @@
         <v>1806</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2295,13 +2292,13 @@
         <v>2619</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,13 +2328,13 @@
         <v>1360</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -2346,13 +2343,13 @@
         <v>1360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,13 +2417,13 @@
         <v>424259</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H29" s="7">
         <v>414</v>
@@ -2435,13 +2432,13 @@
         <v>353218</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>790</v>
@@ -2450,13 +2447,13 @@
         <v>777477</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,13 +2468,13 @@
         <v>1085518</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H30" s="7">
         <v>1935</v>
@@ -2486,13 +2483,13 @@
         <v>1312615</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M30" s="7">
         <v>3010</v>
@@ -2501,13 +2498,13 @@
         <v>2398133</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2519,13 @@
         <v>7941</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -2537,13 +2534,13 @@
         <v>16698</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M31" s="7">
         <v>32</v>
@@ -2552,13 +2549,13 @@
         <v>24639</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2570,13 @@
         <v>813</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -2588,13 +2585,13 @@
         <v>2156</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -2603,13 +2600,13 @@
         <v>2969</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,7 +2662,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04E5F0A0-DA10-48D3-926D-C4BEF88B8FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB74262A-8739-448A-AB9A-EEF70E6F7193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B36C456-7040-49D8-9741-E58B451DE51C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DA5F4D9B-F82F-46E4-B0C9-4E7628DBAADD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
@@ -152,7 +152,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>29,83%</t>
@@ -251,7 +251,7 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>30,29%</t>
@@ -338,7 +338,7 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>10,87%</t>
@@ -1008,7 +1008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA9BCE1-E165-4135-9076-D10B12321C67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238BE35A-E786-402D-91F9-82B4C908FE69}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB74262A-8739-448A-AB9A-EEF70E6F7193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3A2A949-CB2C-4C05-A172-A3EF762B98CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DA5F4D9B-F82F-46E4-B0C9-4E7628DBAADD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30BF1B66-66A1-4458-A5CD-87B9C25D7A9D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="188">
   <si>
     <t>Población que, necesitándolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>27,52%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>72,48%</t>
   </si>
   <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>84,44%</t>
   </si>
   <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>78,18%</t>
   </si>
   <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -158,424 +158,433 @@
     <t>29,83%</t>
   </si>
   <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
   </si>
   <si>
     <t>20,47%</t>
   </si>
   <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>68,47%</t>
   </si>
   <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
   </si>
   <si>
     <t>78,59%</t>
   </si>
   <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
   </si>
   <si>
     <t>74,07%</t>
   </si>
   <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
   </si>
   <si>
     <t>20,97%</t>
   </si>
   <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
+    <t>23,55%</t>
   </si>
   <si>
     <t>24,27%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
   </si>
   <si>
     <t>71,48%</t>
   </si>
   <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
   </si>
   <si>
     <t>74,87%</t>
   </si>
   <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,32%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -584,16 +593,10 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
     <t>0,09%</t>
   </si>
   <si>
     <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1008,7 +1011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238BE35A-E786-402D-91F9-82B4C908FE69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD54B69C-0CF7-4D9A-B6B6-82A7DD445312}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1727,13 +1730,13 @@
         <v>716826</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,13 +1751,13 @@
         <v>2297</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -1763,13 +1766,13 @@
         <v>9746</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -1778,13 +1781,13 @@
         <v>12043</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,13 +1817,13 @@
         <v>795</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1829,13 +1832,13 @@
         <v>795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,7 +1894,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1906,10 +1909,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -1918,13 +1921,13 @@
         <v>53256</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -1933,13 +1936,13 @@
         <v>105552</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,13 +1957,13 @@
         <v>281886</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>425</v>
@@ -1969,13 +1972,13 @@
         <v>299170</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>696</v>
@@ -1984,13 +1987,13 @@
         <v>581055</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,13 +2008,13 @@
         <v>1945</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2020,13 +2023,13 @@
         <v>2595</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -2035,13 +2038,13 @@
         <v>4540</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2062,7 +2065,7 @@
         <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2077,7 +2080,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2092,7 +2095,7 @@
         <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,7 +2151,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2160,13 +2163,13 @@
         <v>144660</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H24" s="7">
         <v>143</v>
@@ -2175,13 +2178,13 @@
         <v>129955</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>267</v>
@@ -2190,13 +2193,13 @@
         <v>274615</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,13 +2214,13 @@
         <v>278348</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>518</v>
@@ -2226,13 +2229,13 @@
         <v>379326</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>819</v>
@@ -2241,13 +2244,13 @@
         <v>657674</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,13 +2265,13 @@
         <v>814</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2277,13 +2280,13 @@
         <v>1806</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2292,13 +2295,13 @@
         <v>2619</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,13 +2331,13 @@
         <v>1360</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -2343,13 +2346,13 @@
         <v>1360</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,13 +2420,13 @@
         <v>424259</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H29" s="7">
         <v>414</v>
@@ -2432,13 +2435,13 @@
         <v>353218</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>790</v>
@@ -2447,13 +2450,13 @@
         <v>777477</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,13 +2471,13 @@
         <v>1085518</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H30" s="7">
         <v>1935</v>
@@ -2483,13 +2486,13 @@
         <v>1312615</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M30" s="7">
         <v>3010</v>
@@ -2498,13 +2501,13 @@
         <v>2398133</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2522,13 @@
         <v>7941</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -2534,13 +2537,13 @@
         <v>16698</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M31" s="7">
         <v>32</v>
@@ -2549,13 +2552,13 @@
         <v>24639</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2573,13 @@
         <v>813</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -2585,13 +2588,13 @@
         <v>2156</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -2600,13 +2603,13 @@
         <v>2969</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,7 +2665,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D3_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3A2A949-CB2C-4C05-A172-A3EF762B98CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4EEBF16-67A6-407E-B0C7-DD278BDB691F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30BF1B66-66A1-4458-A5CD-87B9C25D7A9D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E541E257-310F-467C-A95B-DA2A46B6245A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="165">
   <si>
     <t>Población que, necesitándolo, no pudo recibir algún medicamento en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -65,532 +65,463 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
   </si>
   <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,47%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
   </si>
   <si>
     <t>0,09%</t>
@@ -1011,8 +942,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD54B69C-0CF7-4D9A-B6B6-82A7DD445312}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74E8446-80F4-4F4F-9682-68BBBD87F7FE}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1129,10 +1060,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D4" s="7">
-        <v>14696</v>
+        <v>77643</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1144,10 +1075,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="I4" s="7">
-        <v>7575</v>
+        <v>56553</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1159,10 +1090,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="N4" s="7">
-        <v>22271</v>
+        <v>134196</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1180,10 +1111,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="D5" s="7">
-        <v>38698</v>
+        <v>185304</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1195,10 +1126,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="I5" s="7">
-        <v>41106</v>
+        <v>240316</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1210,10 +1141,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>124</v>
+        <v>638</v>
       </c>
       <c r="N5" s="7">
-        <v>79804</v>
+        <v>425620</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1231,10 +1162,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>2888</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1246,55 +1177,55 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>2418</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>5306</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1303,28 +1234,28 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1333,102 +1264,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="D8" s="7">
-        <v>53394</v>
+        <v>266599</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
-        <v>91</v>
+        <v>516</v>
       </c>
       <c r="I8" s="7">
-        <v>48681</v>
+        <v>299287</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>151</v>
+        <v>810</v>
       </c>
       <c r="N8" s="7">
-        <v>102075</v>
+        <v>565886</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="D9" s="7">
-        <v>65188</v>
+        <v>136530</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="I9" s="7">
-        <v>55533</v>
+        <v>94803</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="N9" s="7">
-        <v>120721</v>
+        <v>231332</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1437,49 +1368,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="D10" s="7">
-        <v>149623</v>
+        <v>519810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>347</v>
+        <v>564</v>
       </c>
       <c r="I10" s="7">
-        <v>213152</v>
+        <v>343164</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
-        <v>514</v>
+        <v>857</v>
       </c>
       <c r="N10" s="7">
-        <v>362774</v>
+        <v>862975</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1488,100 +1419,100 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2885</v>
+        <v>2049</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I11" s="7">
-        <v>2552</v>
+        <v>8621</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7">
-        <v>5437</v>
+        <v>10670</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="7">
-        <v>813</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>767</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>813</v>
+        <v>767</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1590,102 +1521,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>234</v>
+        <v>426</v>
       </c>
       <c r="D13" s="7">
-        <v>218509</v>
+        <v>658389</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
-        <v>425</v>
+        <v>705</v>
       </c>
       <c r="I13" s="7">
-        <v>271237</v>
+        <v>447355</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
-        <v>659</v>
+        <v>1131</v>
       </c>
       <c r="N13" s="7">
-        <v>489746</v>
+        <v>1105744</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7">
-        <v>147419</v>
+        <v>51891</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="I14" s="7">
-        <v>106899</v>
+        <v>51321</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="N14" s="7">
-        <v>254317</v>
+        <v>103212</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,49 +1625,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="D15" s="7">
-        <v>336964</v>
+        <v>277090</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H15" s="7">
-        <v>564</v>
+        <v>425</v>
       </c>
       <c r="I15" s="7">
-        <v>379862</v>
+        <v>275756</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="M15" s="7">
-        <v>857</v>
+        <v>696</v>
       </c>
       <c r="N15" s="7">
-        <v>716826</v>
+        <v>552845</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,52 +1679,52 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2297</v>
+        <v>1857</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>9746</v>
+        <v>2313</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>12043</v>
+        <v>4170</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1802,43 +1733,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1847,102 +1778,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>426</v>
+        <v>314</v>
       </c>
       <c r="D18" s="7">
-        <v>486680</v>
+        <v>330838</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
-        <v>705</v>
+        <v>489</v>
       </c>
       <c r="I18" s="7">
-        <v>497302</v>
+        <v>329390</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
-        <v>1131</v>
+        <v>803</v>
       </c>
       <c r="N18" s="7">
-        <v>983982</v>
+        <v>660227</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="D19" s="7">
-        <v>52296</v>
+        <v>138993</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="I19" s="7">
-        <v>53256</v>
+        <v>172447</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="N19" s="7">
-        <v>105552</v>
+        <v>311439</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,49 +1882,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="D20" s="7">
-        <v>281886</v>
+        <v>268252</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
-        <v>425</v>
+        <v>518</v>
       </c>
       <c r="I20" s="7">
-        <v>299170</v>
+        <v>342610</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
-        <v>696</v>
+        <v>819</v>
       </c>
       <c r="N20" s="7">
-        <v>581055</v>
+        <v>610863</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,55 +1933,55 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>1945</v>
+        <v>708</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H21" s="7">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1638</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M21" s="7">
         <v>4</v>
       </c>
-      <c r="I21" s="7">
-        <v>2595</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6</v>
-      </c>
       <c r="N21" s="7">
-        <v>4540</v>
+        <v>2347</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2059,43 +1990,43 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>1246</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>1246</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,102 +2035,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>314</v>
+        <v>426</v>
       </c>
       <c r="D23" s="7">
-        <v>336127</v>
+        <v>407953</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
-        <v>489</v>
+        <v>666</v>
       </c>
       <c r="I23" s="7">
-        <v>355020</v>
+        <v>517942</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
-        <v>803</v>
+        <v>1092</v>
       </c>
       <c r="N23" s="7">
-        <v>691147</v>
+        <v>925895</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>124</v>
+        <v>376</v>
       </c>
       <c r="D24" s="7">
-        <v>144660</v>
+        <v>405056</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H24" s="7">
+        <v>414</v>
+      </c>
+      <c r="I24" s="7">
+        <v>375123</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24" s="7">
+        <v>790</v>
+      </c>
+      <c r="N24" s="7">
+        <v>780179</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="7">
-        <v>129955</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M24" s="7">
-        <v>267</v>
-      </c>
-      <c r="N24" s="7">
-        <v>274615</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2208,49 +2139,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>301</v>
+        <v>1075</v>
       </c>
       <c r="D25" s="7">
-        <v>278348</v>
+        <v>1250455</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H25" s="7">
-        <v>518</v>
+        <v>1935</v>
       </c>
       <c r="I25" s="7">
-        <v>379326</v>
+        <v>1201847</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M25" s="7">
-        <v>819</v>
+        <v>3010</v>
       </c>
       <c r="N25" s="7">
-        <v>657674</v>
+        <v>2452303</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,100 +2190,100 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D26" s="7">
-        <v>814</v>
+        <v>7502</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I26" s="7">
-        <v>1806</v>
+        <v>14990</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="M26" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="N26" s="7">
-        <v>2619</v>
+        <v>22492</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="7">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="H27" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" s="7">
-        <v>1360</v>
+        <v>2013</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M27" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N27" s="7">
-        <v>1360</v>
+        <v>2778</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,319 +2292,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>426</v>
+        <v>1460</v>
       </c>
       <c r="D28" s="7">
-        <v>423821</v>
+        <v>1663778</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
-        <v>666</v>
+        <v>2376</v>
       </c>
       <c r="I28" s="7">
-        <v>512448</v>
+        <v>1593974</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
-        <v>1092</v>
+        <v>3836</v>
       </c>
       <c r="N28" s="7">
-        <v>936269</v>
+        <v>3257752</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>376</v>
-      </c>
-      <c r="D29" s="7">
-        <v>424259</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H29" s="7">
-        <v>414</v>
-      </c>
-      <c r="I29" s="7">
-        <v>353218</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M29" s="7">
-        <v>790</v>
-      </c>
-      <c r="N29" s="7">
-        <v>777477</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="A29" t="s">
         <v>164</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1075</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1085518</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" s="7">
-        <v>1935</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1312615</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="M30" s="7">
-        <v>3010</v>
-      </c>
-      <c r="N30" s="7">
-        <v>2398133</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>8</v>
-      </c>
-      <c r="D31" s="7">
-        <v>7941</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H31" s="7">
-        <v>24</v>
-      </c>
-      <c r="I31" s="7">
-        <v>16698</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M31" s="7">
-        <v>32</v>
-      </c>
-      <c r="N31" s="7">
-        <v>24639</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="D32" s="7">
-        <v>813</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2156</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M32" s="7">
-        <v>4</v>
-      </c>
-      <c r="N32" s="7">
-        <v>2969</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1460</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1518531</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2376</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1684687</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M33" s="7">
-        <v>3836</v>
-      </c>
-      <c r="N33" s="7">
-        <v>3203218</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>187</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
